--- a/109下/109下 Excel/Excel 第二次上課/練習/Ex03-02b.xlsx
+++ b/109下/109下 Excel/Excel 第二次上課/練習/Ex03-02b.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\00 國立空中大學\109下\109下 Excel\Excel 第二次上課\練習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第二次上課\練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E9C0D-66E4-481C-A846-E16938D3EABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4729D2E1-2190-4991-84D5-48573727625E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WOPiML5IY3EdTtYvlVHacop3kC1/RDaIYfc2hIXWQdZH0bxBfnwxVaqqMqojqR79SvOG8jDfnMPe9xjOp6NKBQ==" workbookSaltValue="/Q+OKXlqsKHowoh6GZK+vQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="7860" windowWidth="19404" windowHeight="13152" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014年" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>明達股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>2015年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總營業額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +90,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="&quot;NT$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -111,6 +115,12 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -126,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -196,13 +206,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,15 +262,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -259,6 +275,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +649,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -615,11 +663,11 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -731,7 +779,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -747,11 +795,11 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -868,7 +916,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -879,164 +927,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="21">
         <f>'2014年'!B5</f>
         <v>600500</v>
       </c>
-      <c r="C5" s="14">
-        <f>VLOOKUP(A5,'2015 年'!A5:B11,2,0)</f>
+      <c r="C5" s="21">
+        <f>VLOOKUP(A5,'2015 年'!A5:B11,2,FALSE)</f>
         <v>2800500</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="22">
+        <f>SUM(B5:C5)</f>
         <v>3401000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="21">
         <f>'2014年'!B6</f>
         <v>5100</v>
       </c>
-      <c r="C6" s="14">
-        <f>VLOOKUP(A6,'2015 年'!A6:B12,2,0)</f>
+      <c r="C6" s="21">
+        <f>VLOOKUP(A6,'2015 年'!A6:B12,2,FALSE)</f>
         <v>25600</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="22">
+        <f t="shared" ref="D6:D11" si="0">SUM(B6:C6)</f>
         <v>30700</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="21">
         <f>'2014年'!B7</f>
         <v>45060</v>
       </c>
-      <c r="C7" s="14">
-        <f>VLOOKUP(A7,'2015 年'!A7:B13,2,0)</f>
+      <c r="C7" s="21">
+        <f>VLOOKUP(A7,'2015 年'!A7:B13,2,FALSE)</f>
         <v>442030</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
         <v>487090</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="21">
         <f>'2014年'!B8</f>
         <v>75000</v>
       </c>
-      <c r="C8" s="14">
-        <f>VLOOKUP(A8,'2015 年'!A7:B13,2,0)</f>
+      <c r="C8" s="21">
+        <f>VLOOKUP(A8,'2015 年'!A8:B14,2,FALSE)</f>
         <v>145000</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="22">
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="21">
         <f>'2014年'!B9</f>
         <v>420000</v>
       </c>
-      <c r="C9" s="14">
-        <f>VLOOKUP(A9,'2015 年'!A8:B14,2,0)</f>
+      <c r="C9" s="21">
+        <f>VLOOKUP(A9,'2015 年'!A9:B15,2,FALSE)</f>
         <v>680000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="22">
+        <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="21">
         <f>'2014年'!B10</f>
         <v>66080</v>
       </c>
-      <c r="C10" s="14">
-        <f>VLOOKUP(A10,'2015 年'!A9:B15,2,0)</f>
+      <c r="C10" s="21">
+        <f>VLOOKUP(A10,'2015 年'!A10:B16,2,FALSE)</f>
         <v>66080</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
         <v>132160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="21">
         <f>'2014年'!B11</f>
         <v>10000</v>
       </c>
-      <c r="C11" s="14">
-        <f>VLOOKUP(A11,'2015 年'!A10:B16,2,0)</f>
+      <c r="C11" s="21">
+        <f>VLOOKUP(A11,'2015 年'!A11:B17,2,FALSE)</f>
         <v>100000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
         <v>110000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="21">
         <f>SUM(B5:B11)</f>
         <v>1221740</v>
       </c>
-      <c r="C12" s="15">
-        <f>SUM(C5:C11)</f>
-        <v>4259210</v>
-      </c>
-      <c r="D12" s="15">
-        <f>SUM(B5:C11)</f>
-        <v>5480950</v>
-      </c>
-      <c r="E12" s="15"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4"/>
@@ -1047,7 +1102,7 @@
       <c r="C14" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SvnokXXvRl99K8XX3elDfdroivZuATQDBJt0Z+H3FOvCmGzrsq65pwNkqoVRXDbgISncKMNkKCovfaHTnahsmg==" saltValue="l6n34G5N0l5gI4FzLwPTdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="raXUXzBAAKSHRAqOO2Ds2SeTdkw5Z7y42m8jQcCnIYMWxBQK8E1jCTPdht3vsni8JehRfPYsidao4T5Pz5wbVw==" saltValue="PBaBtSSS7ZaVEJkTV0fJ6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <dataConsolidate>
     <dataRefs count="2">
       <dataRef ref="B5:B11" sheet="2014年"/>
@@ -1055,7 +1110,7 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
